--- a/project-admin/src/main/resources/poi/员工信息.xlsx
+++ b/project-admin/src/main/resources/poi/员工信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息" sheetId="1" r:id="rId1"/>
@@ -280,7 +280,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>员工基本信息</t>
   </si>
@@ -394,12 +394,6 @@
   </si>
   <si>
     <t>工作经历</t>
-  </si>
-  <si>
-    <t>员工姓名</t>
-  </si>
-  <si>
-    <t>身份证号</t>
   </si>
   <si>
     <t>起始时间(yyyy/m)</t>
@@ -434,11 +428,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -468,21 +462,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,6 +545,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -504,7 +561,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,78 +576,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,7 +592,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,6 +631,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -649,7 +787,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,163 +811,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,6 +850,47 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -866,6 +901,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,65 +937,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -951,10 +945,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -963,137 +957,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1122,6 +1116,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1492,19 +1489,19 @@
   <sheetPr/>
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="45" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="6.125" style="8" customWidth="1"/>
     <col min="3" max="3" width="10.875" style="8" customWidth="1"/>
     <col min="4" max="4" width="28.75" style="8" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="7.75" style="8" customWidth="1"/>
     <col min="6" max="6" width="15.375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="8" customWidth="1"/>
     <col min="8" max="8" width="10.875" style="8" customWidth="1"/>
     <col min="9" max="9" width="11.875" style="8" customWidth="1"/>
     <col min="10" max="10" width="11.5" style="8" customWidth="1"/>
@@ -1526,104 +1523,104 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:24">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
     </row>
     <row r="2" customHeight="1" spans="1:24">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="W2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="12" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1632,20 +1629,20 @@
     <mergeCell ref="A1:X1"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q$1:Q$1048576">
-      <formula1>"基层,中层,高层"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
-      <formula1>"健康或良好,一般或较弱,有慢性病,心血管病,脑血管病,慢性呼吸系统病,慢性消化系统病,慢性肾炎,结核病,糖尿病,神经或精神疾病,癌症,其他慢性病,残疾,视力残疾,听力残疾,语言残疾,肢体残疾,智力残疾,精神残疾,多重残疾,其他残疾"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
       <formula1>"男,女"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576">
       <formula1>"汉族,蒙古族,回族,藏族,维吾尔族,苗族,彝族,壮族,布依族,朝鲜族,满族,侗族,瑶族,白族,土家族,哈尼族,哈萨克族,傣族,黎族,傈僳族,佤族,畲族,高山族,拉祜族,水族,东乡族,纳西族,景颇族,柯尔克孜族,土族,达斡尔族,仫佬族,羌族,布朗族,撒拉族,毛南族,仡佬族,锡伯族,阿昌族,普米族,塔吉克族,怒族,乌孜别克族,俄罗斯族,鄂温克族,德昂族,保安族,裕固族,京族,塔塔尔族,独龙族,鄂伦春族,赫哲族,门巴族,珞巴族,基诺族"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
+      <formula1>"健康或良好,一般或较弱,有慢性病,心血管病,脑血管病,慢性呼吸系统病,慢性消化系统病,慢性肾炎,结核病,糖尿病,神经或精神疾病,癌症,其他慢性病,残疾,视力残疾,听力残疾,语言残疾,肢体残疾,智力残疾,精神残疾,多重残疾,其他残疾"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
       <formula1>"党员,预备党员,团员,群众"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q$1:Q$1048576">
+      <formula1>"基层,中层,高层"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R$1:R$1048576">
       <formula1>"工人,经营管理,临时工,生产管理,专业管理,综合管理"</formula1>
@@ -1663,8 +1660,8 @@
   <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28" customHeight="1" outlineLevelRow="1"/>
@@ -1679,13 +1676,13 @@
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:10">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>26</v>
       </c>
       <c r="H1" s="6"/>
@@ -1729,10 +1726,16 @@
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:F1 G1:J1"/>
+  <dataValidations count="4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 E1:F1 G1 I1:J1"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576 G2:G1048576">
       <formula1>"博士研究生,硕士研究生,本科,专科,中专,职高,技校,高中,初中,小学,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
+      <formula1>"工学博士,理学博士,农学博士,管理学博士,经济学博士,医学博士,教育学博士,军事学博士,哲学博士,历史学博士,文学博士,法学博士,工学硕士,理学硕士,农学硕士,管理学硕士,经济学硕士,医学硕士,教育学硕士,军事学硕士,哲学硕士,历史学硕士,文学硕士,法学硕士,工学学士,理学学士,农学学士,管理学学士,经济学学士,医学学士,教育学学士,军事学学士,哲学学士,历史学学士,文学学士,法学学士,境外学位,名誉博士,无学位"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
+      <formula1>"工学博士,理学博士,农学博士,管理学博士,经济学博士,医学博士,教育学博士,军事学博士,哲学博士,历史学博士,文学博士,法学博士,工学硕士,理学硕士,农学硕士,管理学硕士,经济学硕士,医学硕士,教育学硕士,军事学硕士,哲学硕士,文学硕士,法学硕士,工学学士,理学学士,农学学士,管理学学士,经济学学士,医学学士,教育学学士,军事学学士,哲学学士,历史学学士,文学学士,法学学士,境外学位,名誉博士,无学位"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1747,17 +1750,16 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="36" customHeight="1" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="38" customHeight="1" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.375" style="8" customWidth="1"/>
     <col min="2" max="2" width="23.25" style="8" customWidth="1"/>
-    <col min="3" max="3" width="13" style="9" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="21.875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="8" customWidth="1"/>
+    <col min="3" max="4" width="21.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="25.75" style="8" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="8" customWidth="1"/>
     <col min="7" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -1765,30 +1767,30 @@
       <c r="A1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" s="8" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1806,24 +1808,23 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="39" customHeight="1" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1837,22 +1838,22 @@
         <v>27</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
